--- a/Documents/Tasks.xlsx
+++ b/Documents/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorgomesromerovilela/Development/NotesInGeneral/Java/graduate/PROJECTS/Fase4/StreamFlix/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F3C9E7-991B-2449-9559-969EC904F5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2682308-4D20-BC4E-85E4-7B983656B11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="28040" windowHeight="17420" xr2:uid="{856530A6-D763-6B44-AC83-5A8F6FC200AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>﻿﻿﻿Implementar sistema de marcação de vídeos como favoritos.</t>
   </si>
@@ -503,10 +503,16 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
